--- a/data/trans_orig/P1001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>115102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94622</v>
+        <v>94044</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135062</v>
+        <v>134764</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1115630680728927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09171306032917657</v>
+        <v>0.0911526032609881</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1309092310471121</v>
+        <v>0.130620580281196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -765,19 +765,19 @@
         <v>179888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158022</v>
+        <v>156491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209454</v>
+        <v>207691</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1367853517731951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1201586111936307</v>
+        <v>0.1189941830557476</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1592670621301434</v>
+        <v>0.1579265433039512</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>290</v>
@@ -786,19 +786,19 @@
         <v>294990</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>261775</v>
+        <v>262487</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>328732</v>
+        <v>326808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1256970558613758</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1115438257366598</v>
+        <v>0.1118470334736989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1400747774594864</v>
+        <v>0.1392546834097618</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>916621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>896661</v>
+        <v>896959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>937101</v>
+        <v>937679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8884369319271073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8690907689528879</v>
+        <v>0.8693794197188041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9082869396708235</v>
+        <v>0.9088473967390118</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1116</v>
@@ -836,19 +836,19 @@
         <v>1135225</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1105659</v>
+        <v>1107422</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1157091</v>
+        <v>1158622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8632146482268049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8407329378698564</v>
+        <v>0.8420734566960494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8798413888063692</v>
+        <v>0.8810058169442525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2039</v>
@@ -857,19 +857,19 @@
         <v>2051845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2018103</v>
+        <v>2020027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2085060</v>
+        <v>2084348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8743029441386242</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8599252225405131</v>
+        <v>0.8607453165902381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.88845617426334</v>
+        <v>0.8881529665263009</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>60658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47243</v>
+        <v>46150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78554</v>
+        <v>77713</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03581986348193943</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02789799952231476</v>
+        <v>0.0272527739800287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04638773280646676</v>
+        <v>0.04589141194072362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -982,19 +982,19 @@
         <v>110797</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90545</v>
+        <v>91492</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132821</v>
+        <v>133062</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06978581541883684</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05703008211411804</v>
+        <v>0.05762621754136812</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08365747777834175</v>
+        <v>0.08380929246803544</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>166</v>
@@ -1003,19 +1003,19 @@
         <v>171455</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>145035</v>
+        <v>145960</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>198026</v>
+        <v>195785</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05225552929640784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04420321319032977</v>
+        <v>0.04448538533041014</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0603538009558085</v>
+        <v>0.05967067254680127</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1632755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1614859</v>
+        <v>1615700</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1646170</v>
+        <v>1647263</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9641801365180606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9536122671935333</v>
+        <v>0.9541085880592765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9721020004776852</v>
+        <v>0.9727472260199713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1448</v>
@@ -1053,19 +1053,19 @@
         <v>1476876</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1454852</v>
+        <v>1454611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1497128</v>
+        <v>1496181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9302141845811631</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9163425222216582</v>
+        <v>0.9161907075319644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.942969917885882</v>
+        <v>0.9423737824586318</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3037</v>
@@ -1074,19 +1074,19 @@
         <v>3109631</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3083060</v>
+        <v>3085301</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3136051</v>
+        <v>3135126</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9477444707035921</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9396461990441912</v>
+        <v>0.9403293274531983</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9557967868096702</v>
+        <v>0.9555146146695898</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14098</v>
+        <v>14337</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33934</v>
+        <v>34330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04076567745550766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02556801827548304</v>
+        <v>0.02600002048469025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06154030350234228</v>
+        <v>0.06225791186100401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>27590</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18700</v>
+        <v>18111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40488</v>
+        <v>39436</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05791174630309926</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03925203527461894</v>
+        <v>0.03801568539248393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08498506465513617</v>
+        <v>0.08277636662628639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1220,19 +1220,19 @@
         <v>50068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37127</v>
+        <v>37349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65366</v>
+        <v>66099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04871316837894368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03612211476527756</v>
+        <v>0.03633798407307529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06359717983699227</v>
+        <v>0.06430955538785572</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>528929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517474</v>
+        <v>517078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537310</v>
+        <v>537071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9592343225444924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9384596964976577</v>
+        <v>0.9377420881389961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9744319817245168</v>
+        <v>0.9739999795153098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -1270,19 +1270,19 @@
         <v>448822</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>435924</v>
+        <v>436976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457712</v>
+        <v>458301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9420882536969007</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9150149353448639</v>
+        <v>0.9172236333737139</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9607479647253813</v>
+        <v>0.9619843146075163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>931</v>
@@ -1291,19 +1291,19 @@
         <v>977752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>962454</v>
+        <v>961721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>990693</v>
+        <v>990471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9512868316210563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9364028201630078</v>
+        <v>0.935690444612143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9638778852347224</v>
+        <v>0.9636620159269246</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>198238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06050232505040523</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>308</v>
@@ -1416,19 +1416,19 @@
         <v>318275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09418657804059452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>504</v>
@@ -1437,19 +1437,19 @@
         <v>516514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0776042139872592</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3078305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3050038</v>
+        <v>3050920</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3103961</v>
+        <v>3105270</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9394976749495948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9308707474721263</v>
+        <v>0.9311398394145648</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9473280441211561</v>
+        <v>0.9477275984847151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2989</v>
@@ -1487,19 +1487,19 @@
         <v>3060922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3026487</v>
+        <v>3023544</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3093065</v>
+        <v>3091474</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9058134219594055</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8956230791783869</v>
+        <v>0.8947523566417767</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9153253394593398</v>
+        <v>0.9148547104230352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6007</v>
@@ -1508,19 +1508,19 @@
         <v>6139227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6093938</v>
+        <v>6096119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6180839</v>
+        <v>6185724</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9223957860127407</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9155911999751678</v>
+        <v>0.9159188877325688</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9286477181021235</v>
+        <v>0.9293817101491247</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>129068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108713</v>
+        <v>108343</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151879</v>
+        <v>154119</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1324261717277377</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1115417757952214</v>
+        <v>0.1111612621102068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1558307315622189</v>
+        <v>0.1581284541708203</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>302</v>
@@ -1872,19 +1872,19 @@
         <v>322089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>290153</v>
+        <v>292346</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>355414</v>
+        <v>357705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2409507701468372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2170596162410048</v>
+        <v>0.2187003472285027</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2658804571877125</v>
+        <v>0.2675946335679028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>419</v>
@@ -1893,19 +1893,19 @@
         <v>451157</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>417644</v>
+        <v>414588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>491357</v>
+        <v>490808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.195189136143105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1806899502643205</v>
+        <v>0.1793676685042966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2125812474876946</v>
+        <v>0.2123436951372129</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>845575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>822764</v>
+        <v>820524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>865930</v>
+        <v>866300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8675738282722624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8441692684377811</v>
+        <v>0.8418715458291798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8884582242047787</v>
+        <v>0.8888387378897932</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>944</v>
@@ -1943,19 +1943,19 @@
         <v>1014653</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>981328</v>
+        <v>979037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1046589</v>
+        <v>1044396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7590492298531628</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7341195428122871</v>
+        <v>0.732405366432097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.782940383758995</v>
+        <v>0.7812996527714972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1735</v>
@@ -1964,19 +1964,19 @@
         <v>1860228</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1820028</v>
+        <v>1820577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1893741</v>
+        <v>1896797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.804810863856895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7874187525123053</v>
+        <v>0.7876563048627871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8193100497356796</v>
+        <v>0.8206323314957034</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>90392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72818</v>
+        <v>71703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109959</v>
+        <v>110253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04607207597147393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03711455021481207</v>
+        <v>0.03654671904076883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05604521923302996</v>
+        <v>0.0561948937141267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>159</v>
@@ -2089,19 +2089,19 @@
         <v>173895</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148222</v>
+        <v>149414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202129</v>
+        <v>202872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09892726732644379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08432241100804638</v>
+        <v>0.08500036310289345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1149896442237683</v>
+        <v>0.1154121885448551</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>245</v>
@@ -2110,19 +2110,19 @@
         <v>264286</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>234309</v>
+        <v>232640</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>296843</v>
+        <v>298592</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07104916155792211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06299024672178978</v>
+        <v>0.06254161268955336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07980145055919168</v>
+        <v>0.0802717009187246</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1871575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1852008</v>
+        <v>1851714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1889149</v>
+        <v>1890264</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9539279240285261</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.94395478076697</v>
+        <v>0.9438051062858733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.962885449785188</v>
+        <v>0.9634532809592312</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1476</v>
@@ -2160,19 +2160,19 @@
         <v>1583908</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1555674</v>
+        <v>1554931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1609581</v>
+        <v>1608389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9010727326735563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8850103557762317</v>
+        <v>0.8845878114551448</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9156775889919536</v>
+        <v>0.9149996368971065</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3244</v>
@@ -2181,19 +2181,19 @@
         <v>3455483</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3422926</v>
+        <v>3421177</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3485460</v>
+        <v>3487129</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9289508384420779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9201985494408083</v>
+        <v>0.9197282990812754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9370097532782102</v>
+        <v>0.9374583873104466</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>22476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12761</v>
+        <v>13816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35552</v>
+        <v>35442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04670938549870177</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02652009096801812</v>
+        <v>0.02871280333193427</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07388576228534366</v>
+        <v>0.07365647434139092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -2306,19 +2306,19 @@
         <v>23652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14848</v>
+        <v>15024</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35267</v>
+        <v>35665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05157109444497706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03237429558985724</v>
+        <v>0.03275814569571654</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07689643686224087</v>
+        <v>0.07776489030464517</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -2327,19 +2327,19 @@
         <v>46128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33058</v>
+        <v>32046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63994</v>
+        <v>63539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04908191278660053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03517532657143697</v>
+        <v>0.03409865475153091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06809223667424268</v>
+        <v>0.06760858613857083</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>458705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445629</v>
+        <v>445739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>468420</v>
+        <v>467365</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9532906145012983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9261142377146565</v>
+        <v>0.9263435256586091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9734799090319819</v>
+        <v>0.9712871966680657</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>391</v>
@@ -2377,19 +2377,19 @@
         <v>434979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>423364</v>
+        <v>422966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>443783</v>
+        <v>443607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9484289055550229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9231035631377591</v>
+        <v>0.9222351096953548</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9676257044101427</v>
+        <v>0.9672418543042834</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>813</v>
@@ -2398,19 +2398,19 @@
         <v>893685</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>875819</v>
+        <v>876274</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>906755</v>
+        <v>907767</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9509180872133994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9319077633257573</v>
+        <v>0.9323914138614293</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9648246734285632</v>
+        <v>0.9659013452484694</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>241936</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211912</v>
+        <v>212129</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>277648</v>
+        <v>274696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07078718449934364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.062002512562292</v>
+        <v>0.06206600431456643</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0812359660630096</v>
+        <v>0.08037231011088361</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>482</v>
@@ -2523,19 +2523,19 @@
         <v>519636</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>478958</v>
+        <v>476034</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>562823</v>
+        <v>564248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1462454278082554</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1347973271287286</v>
+        <v>0.1339742459991718</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1584000054297889</v>
+        <v>0.1588011109364145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>701</v>
@@ -2544,19 +2544,19 @@
         <v>761571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>713199</v>
+        <v>709959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>813065</v>
+        <v>820392</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1092490500861461</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1023098925992412</v>
+        <v>0.1018450921730077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1166359193309922</v>
+        <v>0.1176870051282552</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3175855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3140143</v>
+        <v>3143095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3205879</v>
+        <v>3205662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9292128155006564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9187640339369905</v>
+        <v>0.9196276898891168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9379974874377083</v>
+        <v>0.9379339956854338</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2811</v>
@@ -2594,19 +2594,19 @@
         <v>3033539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2990352</v>
+        <v>2988927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3074217</v>
+        <v>3077141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8537545721917447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8415999945702112</v>
+        <v>0.8411988890635854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8652026728712713</v>
+        <v>0.8660257540008282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5792</v>
@@ -2615,19 +2615,19 @@
         <v>6209395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6157901</v>
+        <v>6150574</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6257767</v>
+        <v>6261007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8907509499138538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8833640806690077</v>
+        <v>0.8823129948717449</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8976901074007587</v>
+        <v>0.8981549078269923</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>69529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54780</v>
+        <v>55098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84426</v>
+        <v>84349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0921707964808602</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07261946003823598</v>
+        <v>0.07304062501214345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.111919314937393</v>
+        <v>0.1118168647459772</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>196</v>
@@ -2979,19 +2979,19 @@
         <v>226498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198892</v>
+        <v>198523</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256832</v>
+        <v>256129</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2277135234676532</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.199960180435636</v>
+        <v>0.1995886181329069</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2582112927560931</v>
+        <v>0.257504443168701</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>267</v>
@@ -3000,19 +3000,19 @@
         <v>296026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>263770</v>
+        <v>265333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>327596</v>
+        <v>327606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1692539391166257</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1508110972562414</v>
+        <v>0.1517047657244897</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1873041882128962</v>
+        <v>0.1873098978931723</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>684818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>669921</v>
+        <v>669998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>699567</v>
+        <v>699249</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9078292035191398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8880806850626072</v>
+        <v>0.8881831352540228</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9273805399617641</v>
+        <v>0.9269593749878566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>696</v>
@@ -3050,19 +3050,19 @@
         <v>768162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>737828</v>
+        <v>738531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>795768</v>
+        <v>796137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7722864765323468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.741788707243907</v>
+        <v>0.742495556831299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8000398195643639</v>
+        <v>0.800411381867093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1387</v>
@@ -3071,19 +3071,19 @@
         <v>1452981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1421411</v>
+        <v>1421401</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1485237</v>
+        <v>1483674</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8307460608833743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8126958117871039</v>
+        <v>0.8126901021068278</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8491889027437586</v>
+        <v>0.8482952342755103</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>120175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100498</v>
+        <v>98663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143003</v>
+        <v>145048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05787705404276439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04840045641161569</v>
+        <v>0.04751677953556468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06887132330159788</v>
+        <v>0.06985610744211304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -3196,19 +3196,19 @@
         <v>172120</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145539</v>
+        <v>149125</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>200049</v>
+        <v>199506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08656631002978284</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07319791883263668</v>
+        <v>0.07500140416573915</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.100613237167225</v>
+        <v>0.1003401359893488</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>267</v>
@@ -3217,19 +3217,19 @@
         <v>292295</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>258847</v>
+        <v>259754</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>323450</v>
+        <v>328834</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07191082273898072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06368190137282133</v>
+        <v>0.06390510400410343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07957570273589969</v>
+        <v>0.08090027102670255</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1956210</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1933382</v>
+        <v>1931337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1975887</v>
+        <v>1977722</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9421229459572356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9311286766984022</v>
+        <v>0.930143892557887</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9515995435883844</v>
+        <v>0.9524832204644352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1750</v>
@@ -3267,19 +3267,19 @@
         <v>1816180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1788251</v>
+        <v>1788794</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1842761</v>
+        <v>1839175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9134336899702171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8993867628327749</v>
+        <v>0.8996598640106512</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9268020811673632</v>
+        <v>0.924998595834261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3593</v>
@@ -3288,19 +3288,19 @@
         <v>3772390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3741235</v>
+        <v>3735851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3805838</v>
+        <v>3804931</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9280891772610192</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9204242972641004</v>
+        <v>0.9190997289732975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9363180986271786</v>
+        <v>0.9360948959958966</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>16271</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9524</v>
+        <v>9772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27032</v>
+        <v>26681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02975257532566224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01741421116937435</v>
+        <v>0.01786820679666902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04942866179371463</v>
+        <v>0.04878726629814983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3413,19 +3413,19 @@
         <v>33641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23807</v>
+        <v>23465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46489</v>
+        <v>47223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0612617207726851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04335408110626933</v>
+        <v>0.04273073932522397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08465793253013133</v>
+        <v>0.08599502981889701</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3434,19 +3434,19 @@
         <v>49913</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37281</v>
+        <v>37626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65486</v>
+        <v>67237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04553954969350318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03401450006854217</v>
+        <v>0.03432900227214332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05974894819073052</v>
+        <v>0.06134578134196282</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>530615</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519854</v>
+        <v>520205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537362</v>
+        <v>537114</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9702474246743378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9505713382062855</v>
+        <v>0.9512127337018502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9825857888306256</v>
+        <v>0.982131793203331</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>494</v>
@@ -3484,19 +3484,19 @@
         <v>515499</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>502651</v>
+        <v>501917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525333</v>
+        <v>525675</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9387382792273149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9153420674698687</v>
+        <v>0.9140049701811039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9566459188937307</v>
+        <v>0.9572692606747764</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>980</v>
@@ -3505,19 +3505,19 @@
         <v>1046114</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1030541</v>
+        <v>1028790</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1058746</v>
+        <v>1058401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9544604503064968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9402510518092695</v>
+        <v>0.9386542186580372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9659854999314579</v>
+        <v>0.9656709977278567</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>205975</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>179477</v>
+        <v>180044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>236383</v>
+        <v>236825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06098234432033373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05313702093506047</v>
+        <v>0.05330488709017863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06998518214510334</v>
+        <v>0.07011608769804618</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>386</v>
@@ -3630,19 +3630,19 @@
         <v>432259</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>391010</v>
+        <v>394170</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>474215</v>
+        <v>473681</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1223800530351889</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1107019800539495</v>
+        <v>0.1115966095161509</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1342586226664484</v>
+        <v>0.1341074335553779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>581</v>
@@ -3651,19 +3651,19 @@
         <v>638234</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>590825</v>
+        <v>589866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>693062</v>
+        <v>691153</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09236754215205412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08550634001003604</v>
+        <v>0.08536753207344257</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1003024305826341</v>
+        <v>0.1000262452109577</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3171643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3141235</v>
+        <v>3140793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3198141</v>
+        <v>3197574</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9390176556796662</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9300148178548966</v>
+        <v>0.9298839123019537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9468629790649395</v>
+        <v>0.9466951129098213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2940</v>
@@ -3701,19 +3701,19 @@
         <v>3099841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3057885</v>
+        <v>3058419</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3141090</v>
+        <v>3137930</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8776199469648112</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8657413773335516</v>
+        <v>0.8658925664446221</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8892980199460507</v>
+        <v>0.8884033904838494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5960</v>
@@ -3722,19 +3722,19 @@
         <v>6271484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6216656</v>
+        <v>6218565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6318893</v>
+        <v>6319852</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9076324578479459</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8996975694173658</v>
+        <v>0.8999737547890422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9144936599899638</v>
+        <v>0.9146324679265574</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>64598</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51473</v>
+        <v>51639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80530</v>
+        <v>79892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1117777269360872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08906650765539463</v>
+        <v>0.08935440565187533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1393463825886148</v>
+        <v>0.1382426496017344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>320</v>
@@ -4086,19 +4086,19 @@
         <v>187015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168609</v>
+        <v>168262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>204438</v>
+        <v>206912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.227899815472673</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2054699557874406</v>
+        <v>0.205047182362806</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2491314329136656</v>
+        <v>0.2521468726725982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>403</v>
@@ -4107,19 +4107,19 @@
         <v>251613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>228902</v>
+        <v>229151</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>276706</v>
+        <v>276577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1799142327595995</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1636747186655415</v>
+        <v>0.1638530979849906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.197856846804025</v>
+        <v>0.197764441857369</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>513316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>497384</v>
+        <v>498022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>526441</v>
+        <v>526275</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8882222730639129</v>
+        <v>0.888222273063913</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8606536174113852</v>
+        <v>0.8617573503982657</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9109334923446054</v>
+        <v>0.9106455943481249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1104</v>
@@ -4157,19 +4157,19 @@
         <v>633586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>616163</v>
+        <v>613689</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>651992</v>
+        <v>652339</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7721001845273272</v>
+        <v>0.772100184527327</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7508685670863344</v>
+        <v>0.7478531273274015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7945300442125591</v>
+        <v>0.7949528176371936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1711</v>
@@ -4178,19 +4178,19 @@
         <v>1146902</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1121809</v>
+        <v>1121938</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1169613</v>
+        <v>1169364</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8200857672404004</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8021431531959751</v>
+        <v>0.8022355581426309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8363252813344586</v>
+        <v>0.8361469020150094</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>118828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95559</v>
+        <v>98987</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142189</v>
+        <v>144345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05328670740135334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04285186718415251</v>
+        <v>0.04438932625225428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06376227375402299</v>
+        <v>0.06472942560329363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>264</v>
@@ -4303,19 +4303,19 @@
         <v>193182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170987</v>
+        <v>169258</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>219588</v>
+        <v>218702</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08900817889505595</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07878191380622938</v>
+        <v>0.07798528893525922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1011747266371144</v>
+        <v>0.1007664486263247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>376</v>
@@ -4324,19 +4324,19 @@
         <v>312010</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>277603</v>
+        <v>280010</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>351987</v>
+        <v>348886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07090554262449925</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06308634847850235</v>
+        <v>0.06363330876546584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07999048533345809</v>
+        <v>0.07928565978772295</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2111152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2087791</v>
+        <v>2085635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2134421</v>
+        <v>2130993</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9467132925986464</v>
+        <v>0.9467132925986467</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9362377262459772</v>
+        <v>0.9352705743967066</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9571481328158475</v>
+        <v>0.9556106737477457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2655</v>
@@ -4374,19 +4374,19 @@
         <v>1977201</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1950795</v>
+        <v>1951681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1999396</v>
+        <v>2001125</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9109918211049443</v>
+        <v>0.910991821104944</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8988252733628859</v>
+        <v>0.8992335513736753</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9212180861937707</v>
+        <v>0.9220147110647409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4534</v>
@@ -4395,19 +4395,19 @@
         <v>4088353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4048376</v>
+        <v>4051477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4122760</v>
+        <v>4120353</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9290944573755008</v>
+        <v>0.9290944573755009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9200095146665419</v>
+        <v>0.9207143402122768</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9369136515214974</v>
+        <v>0.9363666912345341</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>28815</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18923</v>
+        <v>19002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41711</v>
+        <v>42316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04049418343458822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02659270448076325</v>
+        <v>0.02670320706792387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05861638349173674</v>
+        <v>0.05946689413205718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -4520,19 +4520,19 @@
         <v>56420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43934</v>
+        <v>43079</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71561</v>
+        <v>70063</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07677492426967734</v>
+        <v>0.07677492426967733</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05978430882621074</v>
+        <v>0.05862121694594405</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09737774551384264</v>
+        <v>0.0953399583246116</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -4541,19 +4541,19 @@
         <v>85235</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66990</v>
+        <v>68791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103564</v>
+        <v>103794</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0589266410851266</v>
+        <v>0.05892664108512657</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04631263568955706</v>
+        <v>0.04755774381748091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07159820451252703</v>
+        <v>0.07175710149766427</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>682772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669876</v>
+        <v>669271</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>692664</v>
+        <v>692585</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9595058165654118</v>
+        <v>0.9595058165654117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9413836165082631</v>
+        <v>0.9405331058679428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9734072955192367</v>
+        <v>0.9732967929320763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>933</v>
@@ -4591,19 +4591,19 @@
         <v>678457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>663316</v>
+        <v>664814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>690943</v>
+        <v>691798</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9232250757303225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9026222544861577</v>
+        <v>0.9046600416753887</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9402156911737893</v>
+        <v>0.9413787830540561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1586</v>
@@ -4612,19 +4612,19 @@
         <v>1361229</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1342900</v>
+        <v>1342670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1379474</v>
+        <v>1377673</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9410733589148734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9284017954874731</v>
+        <v>0.9282428985023358</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9536873643104431</v>
+        <v>0.9524422561825193</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>212241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>180788</v>
+        <v>187475</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>244864</v>
+        <v>244284</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0603047239007461</v>
+        <v>0.06030472390074609</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05136786588950575</v>
+        <v>0.05326786274141917</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06957385893543364</v>
+        <v>0.06940921127406503</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>655</v>
@@ -4737,19 +4737,19 @@
         <v>436617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>406246</v>
+        <v>402855</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>470138</v>
+        <v>471277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1171854778780623</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1090341654491894</v>
+        <v>0.1081240736505414</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.126182405108298</v>
+        <v>0.1264882114537412</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>878</v>
@@ -4758,19 +4758,19 @@
         <v>648858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>610038</v>
+        <v>604032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>698229</v>
+        <v>696681</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08955521277727341</v>
+        <v>0.08955521277727339</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08419719996061137</v>
+        <v>0.08336834585669904</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09636939858489503</v>
+        <v>0.09615570991112338</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3307240</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3274617</v>
+        <v>3275197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3338693</v>
+        <v>3332006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9396952760992539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9304261410645663</v>
+        <v>0.930590788725935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9486321341104942</v>
+        <v>0.9467321372585807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4692</v>
@@ -4808,19 +4808,19 @@
         <v>3289244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3255723</v>
+        <v>3254584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3319615</v>
+        <v>3323006</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8828145221219376</v>
+        <v>0.8828145221219377</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8738175948917022</v>
+        <v>0.8735117885462588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8909658345508106</v>
+        <v>0.8918759263494586</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7831</v>
@@ -4829,19 +4829,19 @@
         <v>6596485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6547114</v>
+        <v>6548662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6635305</v>
+        <v>6641311</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9104447872227265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9036306014151048</v>
+        <v>0.9038442900888759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9158028000393884</v>
+        <v>0.9166316541433009</v>
       </c>
     </row>
     <row r="15">
